--- a/data/Заказ_import.xlsx
+++ b/data/Заказ_import.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WSR\Desktop\ЛР\ДЭ\Модуль 1\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaces\Desktop\programm\course_third\DBDaPT-final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A425FC-7AA0-4B97-B44F-BF93B26BA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1020" windowWidth="17280" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="495" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Order" sheetId="1" r:id="rId1"/>
+    <sheet name="Shoe" sheetId="3" r:id="rId2"/>
+    <sheet name="Maker" sheetId="5" r:id="rId3"/>
+    <sheet name="Vendor" sheetId="4" r:id="rId4"/>
+    <sheet name="Category" sheetId="6" r:id="rId5"/>
+    <sheet name="User" sheetId="2" r:id="rId6"/>
+    <sheet name="Role" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,30 +29,23 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
-  <si>
-    <t>Номер заказа</t>
-  </si>
-  <si>
-    <t>Дата заказа</t>
-  </si>
-  <si>
-    <t>Дата доставки</t>
-  </si>
-  <si>
-    <t>Код для получения</t>
-  </si>
-  <si>
-    <t>Статус заказа</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="150">
   <si>
     <t xml:space="preserve">Новый </t>
   </si>
@@ -65,9 +65,6 @@
     <t>Никифорова Весения Николаевна</t>
   </si>
   <si>
-    <t>ФИО авторизированного клиента</t>
-  </si>
-  <si>
     <t>А112Т4, 2, F635R4, 2</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>F572H7, 5, D329H3, 4</t>
   </si>
   <si>
-    <t>30.02.2025</t>
-  </si>
-  <si>
     <t>H782T5, 1</t>
   </si>
   <si>
@@ -99,13 +93,415 @@
   </si>
   <si>
     <t>Артикулы заказа и количество</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>ReceiveCode</t>
+  </si>
+  <si>
+    <t>AtnDjr</t>
+  </si>
+  <si>
+    <t>4np6se@mail.com</t>
+  </si>
+  <si>
+    <t>Старикова Елена Павловна</t>
+  </si>
+  <si>
+    <t>gynQMT</t>
+  </si>
+  <si>
+    <t>1qz4kw@mail.com</t>
+  </si>
+  <si>
+    <t>Ворсин Петр Евгеньевич</t>
+  </si>
+  <si>
+    <t>LdNyos</t>
+  </si>
+  <si>
+    <t>ptec8ym@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ситдикова Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>rwVDh9</t>
+  </si>
+  <si>
+    <t>5d4zbu@tutanota.com</t>
+  </si>
+  <si>
+    <t>Михайлюк Анна Вячеславовна</t>
+  </si>
+  <si>
+    <t>RSbvHv</t>
+  </si>
+  <si>
+    <t>wpmrc3do@tutanota.com</t>
+  </si>
+  <si>
+    <t>YOyhfR</t>
+  </si>
+  <si>
+    <t>tjde7c@yahoo.com</t>
+  </si>
+  <si>
+    <t>8ntwUp</t>
+  </si>
+  <si>
+    <t>1diph5e@tutanota.com</t>
+  </si>
+  <si>
+    <t>JlFRCZ</t>
+  </si>
+  <si>
+    <t>yzls62@outlook.com</t>
+  </si>
+  <si>
+    <t>2L6KZG</t>
+  </si>
+  <si>
+    <t>uth4iz@mail.com</t>
+  </si>
+  <si>
+    <t>uzWC67</t>
+  </si>
+  <si>
+    <t>94d5ous@gmail.com</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Женские Ботинки демисезонные</t>
+  </si>
+  <si>
+    <t>Женская обувь</t>
+  </si>
+  <si>
+    <t>Rieker</t>
+  </si>
+  <si>
+    <t>Обувь для вас</t>
+  </si>
+  <si>
+    <t>Ботинки</t>
+  </si>
+  <si>
+    <t>H535R5</t>
+  </si>
+  <si>
+    <t>Тапочки мужские син р.41</t>
+  </si>
+  <si>
+    <t>Мужская обувь</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>Тапочки</t>
+  </si>
+  <si>
+    <t>K358H6</t>
+  </si>
+  <si>
+    <t>Сапоги замша Цвет: синий</t>
+  </si>
+  <si>
+    <t>CROSBY</t>
+  </si>
+  <si>
+    <t>Сапоги</t>
+  </si>
+  <si>
+    <t>T324F5</t>
+  </si>
+  <si>
+    <t>Туфли Rieker женские демисезонные, размер 36, цвет коричневый</t>
+  </si>
+  <si>
+    <t>Туфли</t>
+  </si>
+  <si>
+    <t>D268G5</t>
+  </si>
+  <si>
+    <t>Кроссовки мужские TOFA</t>
+  </si>
+  <si>
+    <t>Кроссовки</t>
+  </si>
+  <si>
+    <t>M542T5</t>
+  </si>
+  <si>
+    <t>Полуботинки kari женские WB2020SS-26, размер 38, цвет: черный</t>
+  </si>
+  <si>
+    <t>Полуботинки</t>
+  </si>
+  <si>
+    <t>L754R4</t>
+  </si>
+  <si>
+    <t>Мужские кожаные тапочки "Профиль С.Дали" </t>
+  </si>
+  <si>
+    <t>S326R5</t>
+  </si>
+  <si>
+    <t>Туфли Luiza Belly женские Kate-lazo черные из натуральной замши</t>
+  </si>
+  <si>
+    <t>D364R4</t>
+  </si>
+  <si>
+    <t>Полуботинки Ботинки черные зимние, мех</t>
+  </si>
+  <si>
+    <t>N457T5</t>
+  </si>
+  <si>
+    <t>Ботинки на молнии с декоративной пряжкой FRAU</t>
+  </si>
+  <si>
+    <t>F427R5</t>
+  </si>
+  <si>
+    <t>Ботинки женские, ARGO, размер 40</t>
+  </si>
+  <si>
+    <t>Alessio Nesca</t>
+  </si>
+  <si>
+    <t>C436G5</t>
+  </si>
+  <si>
+    <t>Туфли женские, ARGO</t>
+  </si>
+  <si>
+    <t>P764G4</t>
+  </si>
+  <si>
+    <t>Мужские кожаные ботинки/мужские ботинки</t>
+  </si>
+  <si>
+    <t>B431R5</t>
+  </si>
+  <si>
+    <t>Тапочки мужские Арт.70701-55-67</t>
+  </si>
+  <si>
+    <t>J542F5</t>
+  </si>
+  <si>
+    <t>Ботинки женские зимние ROMER арт. 893167-01 Черный</t>
+  </si>
+  <si>
+    <t>G531F4</t>
+  </si>
+  <si>
+    <t>Туфли женские демисезонные Rieker артикул 55073-68/37</t>
+  </si>
+  <si>
+    <t>O754F4</t>
+  </si>
+  <si>
+    <t>407700/01-02 Полуботинки мужские CROSBY</t>
+  </si>
+  <si>
+    <t>K345R4</t>
+  </si>
+  <si>
+    <t>Кеды Caprice мужские демисезонные, размер 42, цвет черный</t>
+  </si>
+  <si>
+    <t>Кеды</t>
+  </si>
+  <si>
+    <t>S634B5</t>
+  </si>
+  <si>
+    <t>Полуботинки kari женские MYZ20S-149, размер 41, цвет: черный</t>
+  </si>
+  <si>
+    <t>E482R4</t>
+  </si>
+  <si>
+    <t>407700/01-01 Полуботинки мужские CROSBY</t>
+  </si>
+  <si>
+    <t>S213E3</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>Туфли kari женские TR-YR-413017, размер 37, цвет: черный</t>
+  </si>
+  <si>
+    <t>G432E4</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>Туфли Rieker женские демисезонные, размер 41, цвет коричневый</t>
+  </si>
+  <si>
+    <t>B320R5</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>Полуботинки Alessio Nesca женские 3-30797-47, размер 37, цвет: бордовый</t>
+  </si>
+  <si>
+    <t>D329H3</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>Туфли Marco Tozzi женские летние, размер 39, цвет черный</t>
+  </si>
+  <si>
+    <t>Marco Tozzi</t>
+  </si>
+  <si>
+    <t>F572H7</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>129615-4 Кроссовки мужские</t>
+  </si>
+  <si>
+    <t>Рос</t>
+  </si>
+  <si>
+    <t>D572U8</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>B3430/14 Полуботинки мужские Rieker</t>
+  </si>
+  <si>
+    <t>J384T6</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>Мужские ботинки Рос-Обувь кожаные с натуральным мехом</t>
+  </si>
+  <si>
+    <t>G783F5</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>Туфли kari мужские классика MYZ21AW-450A, размер 43, цвет: черный</t>
+  </si>
+  <si>
+    <t>H782T5</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>Ботинки Marco Tozzi женские демисезонные, размер 39, цвет бежевый</t>
+  </si>
+  <si>
+    <t>F635R4</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>Женские Ботинки демисезонные kari</t>
+  </si>
+  <si>
+    <t>А112Т4</t>
+  </si>
+  <si>
+    <t>ShoeId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>VendorId</t>
+  </si>
+  <si>
+    <t>MakerId</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PhotoName</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +530,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +548,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,48 +556,68 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,329 +929,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45715</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45767</v>
+      </c>
+      <c r="E2" s="19">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45715</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45767</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>901</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
         <v>44832</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>45768</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
         <v>902</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
         <v>45737</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>45769</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <v>903</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>45708</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>45770</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
         <v>904</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
         <v>45733</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>45771</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
         <v>905</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
         <v>45717</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>45772</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
         <v>906</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45718</v>
+      </c>
+      <c r="D8" s="3">
         <v>45773</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
         <v>907</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
         <v>45747</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>45774</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
         <v>908</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
         <v>45749</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>45775</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
         <v>909</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
         <v>45750</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>45776</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
         <v>910</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -836,9 +1281,9 @@
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -849,9 +1294,9 @@
     <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -864,7 +1309,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -877,7 +1322,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -890,7 +1335,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -903,7 +1348,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -916,7 +1361,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -929,7 +1374,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -942,7 +1387,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -955,7 +1400,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -968,7 +1413,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -981,7 +1426,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -994,7 +1439,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1007,7 +1452,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1020,7 +1465,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1033,7 +1478,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1046,7 +1491,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1059,7 +1504,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1072,7 +1517,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1085,7 +1530,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1098,7 +1543,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1111,7 +1556,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1124,7 +1569,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1137,7 +1582,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1150,7 +1595,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1163,7 +1608,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1176,7 +1621,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1189,7 +1634,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1202,7 +1647,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1215,7 +1660,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1228,7 +1673,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1241,7 +1686,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1254,7 +1699,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1267,7 +1712,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1280,7 +1725,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1293,7 +1738,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1306,7 +1751,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1319,7 +1764,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1332,7 +1777,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1345,7 +1790,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1358,7 +1803,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1371,7 +1816,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1383,4 +1828,1508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA181173-758B-4EC3-BDFB-BFFAAD7EF075}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4990</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3244</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4499</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5900</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3800</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>4</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4100</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1890</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>4</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2800</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2156</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1800</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5400</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8">
+        <v>500</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2700</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="17">
+        <v>4</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10</v>
+      </c>
+      <c r="F20" s="8">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>6</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10200</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>5</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11800</v>
+      </c>
+      <c r="E22" s="8">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10">
+        <v>2</v>
+      </c>
+      <c r="J22" s="17">
+        <v>4</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <v>6</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8">
+        <v>9900</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3</v>
+      </c>
+      <c r="F25" s="8">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="17">
+        <v>6</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="8">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10">
+        <v>2</v>
+      </c>
+      <c r="J27" s="17">
+        <v>4</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8">
+        <v>4399</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>12</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10">
+        <v>2</v>
+      </c>
+      <c r="J28" s="17">
+        <v>4</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4699</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>6</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8">
+        <v>599</v>
+      </c>
+      <c r="E30" s="8">
+        <v>20</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="17">
+        <v>4</v>
+      </c>
+      <c r="K30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2300</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10">
+        <v>2</v>
+      </c>
+      <c r="J31" s="17">
+        <v>4</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE9B227-FFE0-47FC-9E51-66AB6DC637E6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E34:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D51FA95-E55A-4F97-B3BE-8EBCE21957D2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350247F7-9F92-48C7-9E22-B9DFBB1847F0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492E0151-D8F8-46EC-88A1-C1DA8CBC7575}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{15129263-6B25-4E43-8F34-35BB81064663}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{16E71C3A-325C-47C4-B729-DA0C7E6B2B7F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{333C2347-282E-441A-9C0C-5BB8368D8E04}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{5812675E-A79E-4E28-933D-14C711009102}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{8AB9A777-A99C-413C-8E3F-10679121F146}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{F5B66F5F-46BB-4523-9A10-5A03FAB89376}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{5CEB1DD5-7DD0-4AAD-BCB0-B2BDF52C1CF4}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{E3288BAA-AE28-4545-97B4-19EB16C20376}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{1689CC6B-99F8-4CB4-B7DB-CF0F6735BFFB}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{7F1606B8-2250-454D-A865-052AC53148D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E58DAFD-9E3A-4511-B598-8593339B6910}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>